--- a/database/industries/kashi/kesave/product/quarterly.xlsx
+++ b/database/industries/kashi/kesave/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kesave\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B805C0-16F5-437C-94BD-A55964826657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEC2774-56A1-4811-B5B7-1BD7CA38469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -592,16 +607,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I108"/>
+  <dimension ref="B1:N108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -610,8 +625,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,8 +642,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -634,8 +659,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -644,8 +674,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -656,8 +691,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -668,8 +708,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -678,8 +723,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -700,8 +750,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -710,338 +775,553 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="11">
+        <v>16</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="11">
         <v>748222</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>900260</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>908072</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="9">
+        <v>16</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="9">
         <v>6056576</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>1423930</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>1574381</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>1589781</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>839718</v>
+      </c>
+      <c r="F13" s="11">
+        <v>800803</v>
+      </c>
+      <c r="G13" s="11">
+        <v>655682</v>
+      </c>
+      <c r="H13" s="11">
+        <v>600502</v>
+      </c>
+      <c r="I13" s="11">
+        <v>736888</v>
+      </c>
+      <c r="J13" s="11">
         <v>688025</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>599105</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>649018</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>785074</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>794994</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
+      <c r="E14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>2102672</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2087214</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2034951</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2015381</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2522512</v>
+      </c>
+      <c r="J16" s="9">
         <v>2543049</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="9">
+        <v>16</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="9">
         <v>3214043</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>2942390</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2888017</v>
+      </c>
+      <c r="G23" s="13">
+        <v>2690633</v>
+      </c>
+      <c r="H23" s="13">
+        <v>2615883</v>
+      </c>
+      <c r="I23" s="13">
+        <v>3259400</v>
+      </c>
+      <c r="J23" s="13">
         <v>3231074</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>9869724</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>2821170</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>3259715</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>3292847</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1050,8 +1330,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1060,8 +1345,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1070,10 +1360,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1092,8 +1387,23 @@
       <c r="I27" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1102,136 +1412,216 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="11">
+        <v>16</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="11">
         <v>731841</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>792746</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>902626</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="9">
+        <v>16</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="9">
         <v>1291380</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>1508559</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>1553154</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>11</v>
+      <c r="E32" s="11">
+        <v>935433</v>
+      </c>
+      <c r="F32" s="11">
+        <v>775182</v>
       </c>
       <c r="G32" s="11">
+        <v>730731</v>
+      </c>
+      <c r="H32" s="11">
+        <v>602626</v>
+      </c>
+      <c r="I32" s="11">
+        <v>745423</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="11">
         <v>600211</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>700714</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>605740</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>11</v>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>11</v>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
       </c>
       <c r="G34" s="11">
         <v>0</v>
@@ -1242,222 +1632,372 @@
       <c r="I34" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>2323836</v>
+      </c>
+      <c r="F36" s="11">
+        <v>4273182</v>
+      </c>
+      <c r="G36" s="11">
+        <v>2407952</v>
+      </c>
+      <c r="H36" s="11">
+        <v>1879793</v>
+      </c>
+      <c r="I36" s="11">
+        <v>2490896</v>
+      </c>
+      <c r="J36" s="11">
         <v>2390002</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="11">
+      <c r="E42" s="11">
+        <v>0</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="11">
         <v>3139895</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
+        <v>3259269</v>
+      </c>
+      <c r="F43" s="15">
+        <v>5048364</v>
+      </c>
+      <c r="G43" s="15">
+        <v>3138683</v>
+      </c>
+      <c r="H43" s="15">
+        <v>2482419</v>
+      </c>
+      <c r="I43" s="15">
+        <v>3236319</v>
+      </c>
+      <c r="J43" s="15">
         <v>2390002</v>
       </c>
-      <c r="F43" s="15">
+      <c r="K43" s="15">
         <v>3139895</v>
       </c>
-      <c r="G43" s="15">
+      <c r="L43" s="15">
         <v>2623432</v>
       </c>
-      <c r="H43" s="15">
+      <c r="M43" s="15">
         <v>3002019</v>
       </c>
-      <c r="I43" s="15">
+      <c r="N43" s="15">
         <v>3061520</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1466,8 +2006,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1476,8 +2021,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1486,10 +2036,15 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1508,8 +2063,23 @@
       <c r="I47" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1518,366 +2088,596 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="11">
+        <v>16</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="11">
         <v>968022</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>1311275</v>
       </c>
-      <c r="I50" s="11">
+      <c r="N50" s="11">
         <v>1610229</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="9">
+        <v>16</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="9">
         <v>1212403</v>
       </c>
-      <c r="H51" s="9">
+      <c r="M51" s="9">
         <v>1549075</v>
       </c>
-      <c r="I51" s="9">
+      <c r="N51" s="9">
         <v>1790004</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>11</v>
+      <c r="E52" s="11">
+        <v>107351</v>
+      </c>
+      <c r="F52" s="11">
+        <v>125525</v>
       </c>
       <c r="G52" s="11">
+        <v>119792</v>
+      </c>
+      <c r="H52" s="11">
+        <v>92616</v>
+      </c>
+      <c r="I52" s="11">
+        <v>103387</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="11">
         <v>128314</v>
       </c>
-      <c r="H52" s="11">
+      <c r="M52" s="11">
         <v>166172</v>
       </c>
-      <c r="I52" s="11">
+      <c r="N52" s="11">
         <v>166988</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>11</v>
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>11</v>
+      <c r="E54" s="11">
+        <v>-96411</v>
+      </c>
+      <c r="F54" s="11">
+        <v>-92141</v>
       </c>
       <c r="G54" s="11">
+        <v>-327762</v>
+      </c>
+      <c r="H54" s="11">
+        <v>-98857</v>
+      </c>
+      <c r="I54" s="11">
+        <v>-121346</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L54" s="11">
         <v>-133849</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>-159674</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>-115286</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
+        <v>1457701</v>
+      </c>
+      <c r="F56" s="11">
+        <v>1671032</v>
+      </c>
+      <c r="G56" s="11">
+        <v>2002219</v>
+      </c>
+      <c r="H56" s="11">
+        <v>1439150</v>
+      </c>
+      <c r="I56" s="11">
+        <v>2263197</v>
+      </c>
+      <c r="J56" s="11">
         <v>1925417</v>
       </c>
-      <c r="F56" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K56" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C62" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11">
+        <v>0</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="11">
+        <v>3465103</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="11">
-        <v>3465103</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
+        <v>1468641</v>
+      </c>
+      <c r="F63" s="15">
+        <v>1704416</v>
+      </c>
+      <c r="G63" s="15">
+        <v>1794249</v>
+      </c>
+      <c r="H63" s="15">
+        <v>1432909</v>
+      </c>
+      <c r="I63" s="15">
+        <v>2245238</v>
+      </c>
+      <c r="J63" s="15">
         <v>1925417</v>
       </c>
-      <c r="F63" s="15">
+      <c r="K63" s="15">
         <v>3465103</v>
       </c>
-      <c r="G63" s="15">
+      <c r="L63" s="15">
         <v>2174890</v>
       </c>
-      <c r="H63" s="15">
+      <c r="M63" s="15">
         <v>2866848</v>
       </c>
-      <c r="I63" s="15">
+      <c r="N63" s="15">
         <v>3451935</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1886,8 +2686,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1896,8 +2701,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1906,10 +2716,15 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1928,8 +2743,23 @@
       <c r="I67" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1938,344 +2768,559 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="11">
+        <v>16</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" s="11">
         <v>1322722</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>1654092</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>1783938</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="9">
+        <v>16</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="9">
         <v>845003</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>938843</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>1026857</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>1152496</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>114761</v>
+      </c>
+      <c r="F72" s="11">
+        <v>153530</v>
+      </c>
+      <c r="G72" s="11">
+        <v>130670</v>
+      </c>
+      <c r="H72" s="11">
+        <v>153687</v>
+      </c>
+      <c r="I72" s="11">
+        <v>138696</v>
+      </c>
+      <c r="J72" s="11">
         <v>238062</v>
       </c>
-      <c r="F72" s="11">
+      <c r="K72" s="11">
         <v>222533</v>
       </c>
-      <c r="G72" s="11">
+      <c r="L72" s="11">
         <v>213781</v>
       </c>
-      <c r="H72" s="11">
+      <c r="M72" s="11">
         <v>237147</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>275676</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
+        <v>627282</v>
+      </c>
+      <c r="F76" s="11">
+        <v>771929</v>
+      </c>
+      <c r="G76" s="11">
+        <v>671078</v>
+      </c>
+      <c r="H76" s="11">
+        <v>765590</v>
+      </c>
+      <c r="I76" s="11">
+        <v>908588</v>
+      </c>
+      <c r="J76" s="11">
         <v>805613</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K76" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N79" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="11">
+        <v>16</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" s="11">
         <v>1103573</v>
       </c>
-      <c r="G82" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L82" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2284,8 +3329,13 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2294,8 +3344,13 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2304,10 +3359,15 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2326,8 +3386,23 @@
       <c r="I86" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2336,109 +3411,174 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="9">
+        <v>16</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L88" s="9">
         <v>-578082</v>
       </c>
-      <c r="H88" s="9">
+      <c r="M88" s="9">
         <v>-768705</v>
       </c>
-      <c r="I88" s="9">
+      <c r="N88" s="9">
         <v>-963631</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="11">
+        <v>16</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="11">
         <v>-3281441</v>
       </c>
-      <c r="G89" s="11">
+      <c r="L89" s="11">
         <v>-883578</v>
       </c>
-      <c r="H89" s="11">
+      <c r="M89" s="11">
         <v>-1102807</v>
       </c>
-      <c r="I89" s="11">
+      <c r="N89" s="11">
         <v>-1271755</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9">
+        <v>-49106</v>
+      </c>
+      <c r="F90" s="9">
+        <v>-58732</v>
+      </c>
+      <c r="G90" s="9">
+        <v>-90318</v>
+      </c>
+      <c r="H90" s="9">
+        <v>-62092</v>
+      </c>
+      <c r="I90" s="9">
+        <v>-63231</v>
+      </c>
+      <c r="J90" s="9">
         <v>-81174</v>
       </c>
-      <c r="F90" s="9">
+      <c r="K90" s="9">
         <v>-156019</v>
       </c>
-      <c r="G90" s="9">
+      <c r="L90" s="9">
         <v>-102789</v>
       </c>
-      <c r="H90" s="9">
+      <c r="M90" s="9">
         <v>-125396</v>
       </c>
-      <c r="I90" s="9">
+      <c r="N90" s="9">
         <v>-120019</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D91" s="11"/>
-      <c r="E91" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>11</v>
+      <c r="E91" s="11">
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
+        <v>0</v>
+      </c>
+      <c r="G91" s="11">
+        <v>0</v>
+      </c>
+      <c r="H91" s="11">
+        <v>0</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9">
@@ -2456,78 +3596,138 @@
       <c r="I92" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="9">
+        <v>0</v>
+      </c>
+      <c r="K92" s="9">
+        <v>0</v>
+      </c>
+      <c r="L92" s="9">
+        <v>0</v>
+      </c>
+      <c r="M92" s="9">
+        <v>0</v>
+      </c>
+      <c r="N92" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
+        <v>-712474</v>
+      </c>
+      <c r="F93" s="11">
+        <v>-823233</v>
+      </c>
+      <c r="G93" s="11">
+        <v>-1048001</v>
+      </c>
+      <c r="H93" s="11">
+        <v>-944833</v>
+      </c>
+      <c r="I93" s="11">
+        <v>-1364646</v>
+      </c>
+      <c r="J93" s="11">
         <v>-1429289</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K93" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M93" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N93" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C94" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9">
+        <v>0</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="9">
+        <v>-2170481</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N94" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="9">
-        <v>-2170481</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B95" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
+        <v>-761580</v>
+      </c>
+      <c r="F95" s="13">
+        <v>-881965</v>
+      </c>
+      <c r="G95" s="13">
+        <v>-1138319</v>
+      </c>
+      <c r="H95" s="13">
+        <v>-1006925</v>
+      </c>
+      <c r="I95" s="13">
+        <v>-1427877</v>
+      </c>
+      <c r="J95" s="13">
         <v>-1510463</v>
       </c>
-      <c r="F95" s="13">
+      <c r="K95" s="13">
         <v>-5607941</v>
       </c>
-      <c r="G95" s="13">
+      <c r="L95" s="13">
         <v>-1564449</v>
       </c>
-      <c r="H95" s="13">
+      <c r="M95" s="13">
         <v>-1996908</v>
       </c>
-      <c r="I95" s="13">
+      <c r="N95" s="13">
         <v>-2355405</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2536,8 +3736,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2546,8 +3751,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2556,10 +3766,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2578,8 +3793,23 @@
       <c r="I99" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2588,194 +3818,319 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="9">
+        <v>16</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" s="9">
         <v>389940</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>542570</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>646598</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="11">
+        <v>16</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" s="11">
         <v>1803918</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>328825</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>446268</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>518249</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>58245</v>
+      </c>
+      <c r="F103" s="9">
+        <v>60282</v>
+      </c>
+      <c r="G103" s="9">
+        <v>22518</v>
+      </c>
+      <c r="H103" s="9">
+        <v>30524</v>
+      </c>
+      <c r="I103" s="9">
+        <v>40156</v>
+      </c>
+      <c r="J103" s="9">
         <v>21215</v>
       </c>
-      <c r="F103" s="9">
+      <c r="K103" s="9">
         <v>-27188</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>25525</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>40776</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>46969</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D104" s="11"/>
-      <c r="E104" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>11</v>
+      <c r="E104" s="11">
+        <v>0</v>
+      </c>
+      <c r="F104" s="11">
+        <v>0</v>
+      </c>
+      <c r="G104" s="11">
+        <v>0</v>
+      </c>
+      <c r="H104" s="11">
+        <v>0</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
-        <v>0</v>
+        <v>-96411</v>
       </c>
       <c r="F105" s="9">
-        <v>0</v>
+        <v>-92141</v>
       </c>
       <c r="G105" s="9">
-        <v>0</v>
+        <v>-85705</v>
       </c>
       <c r="H105" s="9">
-        <v>0</v>
+        <v>-98857</v>
       </c>
       <c r="I105" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+        <v>98857</v>
+      </c>
+      <c r="J105" s="9">
+        <v>0</v>
+      </c>
+      <c r="K105" s="9">
+        <v>0</v>
+      </c>
+      <c r="L105" s="9">
+        <v>0</v>
+      </c>
+      <c r="M105" s="9">
+        <v>0</v>
+      </c>
+      <c r="N105" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
+        <v>745227</v>
+      </c>
+      <c r="F106" s="11">
+        <v>854310</v>
+      </c>
+      <c r="G106" s="11">
+        <v>719117</v>
+      </c>
+      <c r="H106" s="11">
+        <v>494317</v>
+      </c>
+      <c r="I106" s="11">
+        <v>898551</v>
+      </c>
+      <c r="J106" s="11">
         <v>496128</v>
       </c>
-      <c r="F106" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K106" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C107" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9">
+        <v>0</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K107" s="9">
+        <v>1294622</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M107" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N107" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="9">
-        <v>1294622</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H107" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B108" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13">
+        <v>707061</v>
+      </c>
+      <c r="F108" s="13">
+        <v>822451</v>
+      </c>
+      <c r="G108" s="13">
+        <v>655930</v>
+      </c>
+      <c r="H108" s="13">
+        <v>425984</v>
+      </c>
+      <c r="I108" s="13">
+        <v>1037564</v>
+      </c>
+      <c r="J108" s="13">
         <v>517343</v>
       </c>
-      <c r="F108" s="13">
+      <c r="K108" s="13">
         <v>3071352</v>
       </c>
-      <c r="G108" s="13">
+      <c r="L108" s="13">
         <v>744290</v>
       </c>
-      <c r="H108" s="13">
+      <c r="M108" s="13">
         <v>1029614</v>
       </c>
-      <c r="I108" s="13">
+      <c r="N108" s="13">
         <v>1211816</v>
       </c>
     </row>

--- a/database/industries/kashi/kesave/product/quarterly.xlsx
+++ b/database/industries/kashi/kesave/product/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\kashi\kesave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEC2774-56A1-4811-B5B7-1BD7CA38469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="41">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
     <t>Copyright @2015 - 2023</t>
-  </si>
-  <si>
-    <t>کساوه-صنایع‌ کاشی‌ و سرامیک‌ سینا</t>
   </si>
   <si>
     <t>تولید و فروش</t>
@@ -73,13 +69,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>کاشی کف</t>
-  </si>
-  <si>
     <t>متر مربع</t>
-  </si>
-  <si>
-    <t>کاشی دیوار</t>
   </si>
   <si>
     <t>چینی بهداشتی</t>
@@ -92,9 +82,6 @@
   </si>
   <si>
     <t>پخت سوم</t>
-  </si>
-  <si>
-    <t>کاشی و سرامیک</t>
   </si>
   <si>
     <t>گرانیت و پورسلان</t>
@@ -153,12 +140,19 @@
   <si>
     <t>سود ناخالص</t>
   </si>
+  <si>
+    <t>کساوه-صنایع‌ کاشی سینا</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -187,6 +181,11 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -249,10 +248,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -293,8 +293,15 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -606,10 +613,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="J36" sqref="H36:J36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -682,7 +691,7 @@
     </row>
     <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -699,7 +708,7 @@
     </row>
     <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -731,39 +740,39 @@
     </row>
     <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="N8" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -783,69 +792,69 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" s="11">
         <v>748222</v>
@@ -859,29 +868,29 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="9">
         <v>6056576</v>
@@ -898,10 +907,10 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
@@ -937,21 +946,21 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
@@ -974,49 +983,49 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
@@ -1038,255 +1047,255 @@
         <v>2543049</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" s="9">
         <v>3214043</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1368,39 +1377,39 @@
     </row>
     <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="L27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="N27" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -1420,69 +1429,69 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L30" s="11">
         <v>731841</v>
@@ -1496,32 +1505,32 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L31" s="9">
         <v>1291380</v>
@@ -1535,10 +1544,10 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
@@ -1550,22 +1559,22 @@
       <c r="G32" s="11">
         <v>730731</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="16">
         <v>602626</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="16">
         <v>745423</v>
       </c>
-      <c r="J32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="11">
+      <c r="J32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="16">
         <v>600211</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="16">
         <v>700714</v>
       </c>
       <c r="N32" s="11">
@@ -1574,10 +1583,10 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
@@ -1589,31 +1598,31 @@
       <c r="G33" s="9">
         <v>0</v>
       </c>
-      <c r="H33" s="9">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>16</v>
+      <c r="H33" s="17">
+        <v>0</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1626,22 +1635,22 @@
       <c r="G34" s="11">
         <v>0</v>
       </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
+      <c r="H34" s="16">
+        <v>0</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="16">
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
         <v>0</v>
       </c>
       <c r="N34" s="11">
@@ -1650,49 +1659,49 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
@@ -1704,265 +1713,265 @@
       <c r="G36" s="11">
         <v>2407952</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="16">
         <v>1879793</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="16">
         <v>2490896</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="16">
         <v>2390002</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>16</v>
+      <c r="K36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
         <v>0</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K42" s="11">
         <v>3139895</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -2044,39 +2053,39 @@
     </row>
     <row r="47" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="H47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="J47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="K47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="L47" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="M47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M47" s="6" t="s">
+      <c r="N47" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
@@ -2096,71 +2105,71 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L50" s="11">
         <v>968022</v>
@@ -2174,32 +2183,32 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L51" s="9">
         <v>1212403</v>
@@ -2213,10 +2222,10 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
@@ -2235,10 +2244,10 @@
         <v>103387</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L52" s="11">
         <v>128314</v>
@@ -2252,10 +2261,10 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
@@ -2271,30 +2280,30 @@
         <v>0</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
@@ -2313,10 +2322,10 @@
         <v>-121346</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L54" s="11">
         <v>-133849</v>
@@ -2330,49 +2339,49 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
@@ -2394,255 +2403,255 @@
         <v>1925417</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
         <v>0</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K62" s="11">
         <v>3465103</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -2724,39 +2733,39 @@
     </row>
     <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="G67" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="H67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="I67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="J67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="6" t="s">
+      <c r="K67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K67" s="6" t="s">
+      <c r="L67" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L67" s="6" t="s">
+      <c r="M67" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M67" s="6" t="s">
+      <c r="N67" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="N67" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
@@ -2776,71 +2785,71 @@
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L70" s="11">
         <v>1322722</v>
@@ -2854,29 +2863,29 @@
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K71" s="9">
         <v>845003</v>
@@ -2893,10 +2902,10 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
@@ -2932,127 +2941,127 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N74" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
@@ -3074,250 +3083,250 @@
         <v>805613</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N76" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N80" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N81" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K82" s="11">
         <v>1103573</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N82" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
@@ -3367,39 +3376,39 @@
     </row>
     <row r="86" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="H86" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="I86" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I86" s="6" t="s">
+      <c r="J86" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J86" s="6" t="s">
+      <c r="K86" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K86" s="6" t="s">
+      <c r="L86" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L86" s="6" t="s">
+      <c r="M86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M86" s="6" t="s">
+      <c r="N86" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="N86" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
@@ -3419,32 +3428,32 @@
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L88" s="9">
         <v>-578082</v>
@@ -3458,29 +3467,29 @@
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K89" s="11">
         <v>-3281441</v>
@@ -3497,10 +3506,10 @@
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9">
@@ -3536,10 +3545,10 @@
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
@@ -3555,30 +3564,30 @@
         <v>0</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L91" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N91" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9">
@@ -3614,10 +3623,10 @@
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
@@ -3639,60 +3648,60 @@
         <v>-1429289</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L93" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M93" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N93" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
         <v>0</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K94" s="9">
         <v>-2170481</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -3774,39 +3783,39 @@
     </row>
     <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="G99" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G99" s="6" t="s">
+      <c r="H99" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="I99" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I99" s="6" t="s">
+      <c r="J99" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J99" s="6" t="s">
+      <c r="K99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K99" s="6" t="s">
+      <c r="L99" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L99" s="6" t="s">
+      <c r="M99" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M99" s="6" t="s">
+      <c r="N99" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="N99" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
@@ -3826,32 +3835,32 @@
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L101" s="9">
         <v>389940</v>
@@ -3865,29 +3874,29 @@
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J102" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K102" s="11">
         <v>1803918</v>
@@ -3904,10 +3913,10 @@
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
@@ -3943,10 +3952,10 @@
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
@@ -3962,30 +3971,30 @@
         <v>0</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
@@ -4021,10 +4030,10 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
@@ -4046,60 +4055,60 @@
         <v>496128</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L106" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M106" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
         <v>0</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K107" s="9">
         <v>1294622</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N107" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>

--- a/database/industries/kashi/kesave/product/quarterly.xlsx
+++ b/database/industries/kashi/kesave/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\kashi\kesave\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6159409B-3C00-4EC3-A63D-BCB5BA252E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -27,6 +28,9 @@
     <t>Copyright @2015 - 2023</t>
   </si>
   <si>
+    <t>کساوه-صنایع‌ کاشی‌ و سرامیک‌ سینا</t>
+  </si>
+  <si>
     <t>تولید و فروش</t>
   </si>
   <si>
@@ -69,9 +73,15 @@
     <t>-</t>
   </si>
   <si>
+    <t>کاشی کف</t>
+  </si>
+  <si>
     <t>متر مربع</t>
   </si>
   <si>
+    <t>کاشی دیوار</t>
+  </si>
+  <si>
     <t>چینی بهداشتی</t>
   </si>
   <si>
@@ -84,6 +94,9 @@
     <t>پخت سوم</t>
   </si>
   <si>
+    <t>کاشی و سرامیک</t>
+  </si>
+  <si>
     <t>گرانیت و پورسلان</t>
   </si>
   <si>
@@ -139,20 +152,13 @@
   </si>
   <si>
     <t>سود ناخالص</t>
-  </si>
-  <si>
-    <t>کساوه-صنایع‌ کاشی سینا</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -181,11 +187,6 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri Bold"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -248,11 +249,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -293,15 +293,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -613,19 +606,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N108"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="J36" sqref="H36:J36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -640,7 +631,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -657,7 +648,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -674,7 +665,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -689,9 +680,9 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -706,9 +697,9 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -723,7 +714,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -738,44 +729,44 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -790,71 +781,71 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L11" s="11">
         <v>748222</v>
@@ -866,31 +857,31 @@
         <v>908072</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K12" s="9">
         <v>6056576</v>
@@ -905,12 +896,12 @@
         <v>1589781</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
@@ -944,23 +935,23 @@
         <v>794994</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
@@ -981,51 +972,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
@@ -1047,255 +1038,255 @@
         <v>2543049</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K22" s="9">
         <v>3214043</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1330,7 +1321,7 @@
         <v>3292847</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1345,7 +1336,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1360,7 +1351,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1375,44 +1366,44 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1427,71 +1418,71 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L30" s="11">
         <v>731841</v>
@@ -1503,34 +1494,34 @@
         <v>902626</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L31" s="9">
         <v>1291380</v>
@@ -1542,12 +1533,12 @@
         <v>1553154</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
@@ -1559,34 +1550,34 @@
       <c r="G32" s="11">
         <v>730731</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="11">
         <v>602626</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="11">
         <v>745423</v>
       </c>
-      <c r="J32" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L32" s="16">
+      <c r="J32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="11">
         <v>600211</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M32" s="11">
         <v>700714</v>
       </c>
       <c r="N32" s="11">
         <v>605740</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
@@ -1598,31 +1589,31 @@
       <c r="G33" s="9">
         <v>0</v>
       </c>
-      <c r="H33" s="17">
-        <v>0</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>15</v>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1635,73 +1626,73 @@
       <c r="G34" s="11">
         <v>0</v>
       </c>
-      <c r="H34" s="16">
-        <v>0</v>
-      </c>
-      <c r="I34" s="16">
-        <v>0</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" s="16">
-        <v>0</v>
-      </c>
-      <c r="M34" s="16">
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
         <v>0</v>
       </c>
       <c r="N34" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
@@ -1713,265 +1704,265 @@
       <c r="G36" s="11">
         <v>2407952</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="11">
         <v>1879793</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="11">
         <v>2490896</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="11">
         <v>2390002</v>
       </c>
-      <c r="K36" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M36" s="16" t="s">
-        <v>15</v>
+      <c r="K36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
         <v>0</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K42" s="11">
         <v>3139895</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -2006,7 +1997,7 @@
         <v>3061520</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2021,7 +2012,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2036,7 +2027,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2051,44 +2042,44 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2103,73 +2094,73 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L50" s="11">
         <v>968022</v>
@@ -2181,34 +2172,34 @@
         <v>1610229</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L51" s="9">
         <v>1212403</v>
@@ -2220,12 +2211,12 @@
         <v>1790004</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
@@ -2244,10 +2235,10 @@
         <v>103387</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L52" s="11">
         <v>128314</v>
@@ -2259,12 +2250,12 @@
         <v>166988</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
@@ -2280,30 +2271,30 @@
         <v>0</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
@@ -2322,10 +2313,10 @@
         <v>-121346</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L54" s="11">
         <v>-133849</v>
@@ -2337,51 +2328,51 @@
         <v>-115286</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
@@ -2403,255 +2394,255 @@
         <v>1925417</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
         <v>0</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K62" s="11">
         <v>3465103</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -2686,7 +2677,7 @@
         <v>3451935</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2701,7 +2692,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2716,7 +2707,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2731,44 +2722,44 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2783,73 +2774,73 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L70" s="11">
         <v>1322722</v>
@@ -2861,31 +2852,31 @@
         <v>1783938</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K71" s="9">
         <v>845003</v>
@@ -2900,12 +2891,12 @@
         <v>1152496</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
@@ -2939,129 +2930,129 @@
         <v>275676</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N74" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
@@ -3083,253 +3074,253 @@
         <v>805613</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N76" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N80" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N81" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K82" s="11">
         <v>1103573</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N82" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3344,7 +3335,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3359,7 +3350,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3374,44 +3365,44 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3426,34 +3417,34 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L88" s="9">
         <v>-578082</v>
@@ -3465,31 +3456,31 @@
         <v>-963631</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K89" s="11">
         <v>-3281441</v>
@@ -3504,12 +3495,12 @@
         <v>-1271755</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9">
@@ -3543,12 +3534,12 @@
         <v>-120019</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
@@ -3564,30 +3555,30 @@
         <v>0</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L91" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N91" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9">
@@ -3621,12 +3612,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
@@ -3648,60 +3639,60 @@
         <v>-1429289</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L93" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M93" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N93" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9">
         <v>0</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K94" s="9">
         <v>-2170481</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -3736,7 +3727,7 @@
         <v>-2355405</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3751,7 +3742,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3766,7 +3757,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3781,44 +3772,44 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3833,34 +3824,34 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L101" s="9">
         <v>389940</v>
@@ -3872,31 +3863,31 @@
         <v>646598</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J102" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K102" s="11">
         <v>1803918</v>
@@ -3911,12 +3902,12 @@
         <v>518249</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
@@ -3950,12 +3941,12 @@
         <v>46969</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
@@ -3971,30 +3962,30 @@
         <v>0</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
@@ -4028,12 +4019,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
@@ -4055,60 +4046,60 @@
         <v>496128</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L106" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M106" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N106" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
         <v>0</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K107" s="9">
         <v>1294622</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N107" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
